--- a/resources/conf/features_max_value.xlsx
+++ b/resources/conf/features_max_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF62F2-8455-7648-98BA-64D9E458A2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E85F2-46AD-A64F-972A-4D94D1E92127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="6420" windowWidth="21800" windowHeight="12980" xr2:uid="{E83522BE-A6C3-E74A-BA81-8913AB0A4775}"/>
+    <workbookView xWindow="3840" yWindow="2840" windowWidth="26260" windowHeight="16540" xr2:uid="{E83522BE-A6C3-E74A-BA81-8913AB0A4775}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5037F216-35FF-5842-A258-4D48BAD490E9}">
   <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,19 +841,19 @@
         <v>7</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD2">
         <v>140</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF2">
         <v>30</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH2">
         <v>35</v>
